--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD0C1-2703-4F0D-98EC-E75EF8C3D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26880" windowHeight="12684" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -90,13 +97,25 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +138,156 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +300,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,11 +495,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,18 +756,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,29 +1101,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -506,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -526,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -546,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -566,7 +1203,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -586,7 +1223,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -606,7 +1243,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -624,7 +1261,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -642,7 +1279,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -661,31 +1298,32 @@
       <c r="H11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -705,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -725,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -745,7 +1383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -763,9 +1401,47 @@
       </c>
       <c r="H6" s="5"/>
     </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="6">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12684" activeTab="1"/>
+    <workbookView windowWidth="19140" windowHeight="9492" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +131,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -611,137 +605,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,9 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,7 +1301,7 @@
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1402,42 +1393,41 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6">
-        <v>10012</v>
+      <c r="H7" s="3">
+        <v>40012</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="6">
+    <row r="8" spans="3:7">
+      <c r="C8" s="3">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\StartConfig\Release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19140" windowHeight="9492" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -100,6 +105,19 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router1</t>
+  </si>
+  <si>
+    <t>Router2</t>
+  </si>
+  <si>
+    <t>Map3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LoginCenter</t>
@@ -108,14 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,151 +149,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,194 +168,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -489,251 +177,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -751,61 +197,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1092,29 +494,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1194,7 +596,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1214,7 +616,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1234,7 +636,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1252,7 +654,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1270,7 +672,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1289,32 +691,31 @@
       <c r="H11" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1392,9 +793,9 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="3">
-        <v>11</v>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>201</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1412,9 +813,9 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="3">
-        <v>12</v>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>202</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1423,15 +824,75 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>204</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>205</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\StartConfig\Release\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="9495" activeTab="1"/>
+    <workbookView windowWidth="20220" windowHeight="12311" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -107,6 +102,9 @@
     <t>Account</t>
   </si>
   <si>
+    <t>Map3</t>
+  </si>
+  <si>
     <t>Router</t>
   </si>
   <si>
@@ -114,10 +112,6 @@
   </si>
   <si>
     <t>Router2</t>
-  </si>
-  <si>
-    <t>Map3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LoginCenter</t>
@@ -126,8 +120,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +149,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +306,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -197,17 +763,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,29 +1104,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -536,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -556,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -576,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -596,7 +1206,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -616,7 +1226,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -636,7 +1246,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -654,7 +1264,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -672,7 +1282,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -691,31 +1301,32 @@
       <c r="H11" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -735,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -755,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -775,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -793,7 +1404,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="5">
         <v>201</v>
       </c>
@@ -813,7 +1424,7 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="5">
         <v>202</v>
       </c>
@@ -827,53 +1438,53 @@
         <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3">
         <v>10007</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="5">
         <v>203</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="5">
         <v>204</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3">
         <v>10009</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7">
       <c r="C11" s="5">
         <v>205</v>
       </c>
@@ -891,8 +1502,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\StartConfig\Release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20220" windowHeight="12311" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -102,9 +107,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>Map3</t>
-  </si>
-  <si>
     <t>Router</t>
   </si>
   <si>
@@ -115,19 +117,16 @@
   </si>
   <si>
     <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>Map1_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,151 +148,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,194 +167,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -501,251 +176,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -763,61 +196,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1104,29 +493,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1206,7 +595,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1226,7 +615,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1246,7 +635,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1264,7 +653,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1282,7 +671,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1301,32 +690,31 @@
       <c r="H11" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1404,7 +792,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>201</v>
       </c>
@@ -1424,9 +812,9 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="5">
-        <v>202</v>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1438,13 +826,13 @@
         <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>203</v>
       </c>
@@ -1455,16 +843,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>204</v>
       </c>
@@ -1475,16 +863,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3">
         <v>10009</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>205</v>
       </c>
@@ -1495,15 +883,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>